--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86270.52851555568</v>
+        <v>83569.31186409766</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>148.6865099692911</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>92.07720442932798</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>79.22755959733803</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>6.160134463884713</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>201.6920953729184</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>190.9546701328852</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>274.0525447211657</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>383.6877278154319</v>
+        <v>383.6877278154309</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863682</v>
+        <v>99.30025118863692</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>263.4419948252303</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>25.5039487191176</v>
       </c>
       <c r="D6" t="n">
-        <v>16.58167815471289</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333227</v>
+        <v>97.33388804333228</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951727</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713763</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.71449465255269</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083601</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643479</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>228.9176563786554</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>291.4602625293657</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>32.24498498065267</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>87.02503305541919</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>125.3373059116982</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>286.1262229023125</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,10 +1385,10 @@
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184572</v>
+        <v>24.14662204184563</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615221</v>
+        <v>40.05224236574549</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>87.26058381812553</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530797</v>
+        <v>10.48847705530794</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>2.194593185451817</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>8.231287299346222</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905243</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560542</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>86.80636739625331</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>94.30373791808316</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>121.6256473075366</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>102.7111628144463</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703267</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>112.6683130937952</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465617</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756234</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>146.185049953109</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.63412424768324</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146506</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>23.05950344416408</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.295034370327</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428175</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3275,13 +3275,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703264</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428195</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766855</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187853</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>83.06560892428165</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>646.8597007358178</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>646.8597007358178</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>646.8597007358178</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>646.8597007358178</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F2" t="n">
-        <v>380.4820441686398</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="G2" t="n">
-        <v>114.1043876014619</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U2" t="n">
-        <v>646.8597007358178</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="V2" t="n">
-        <v>646.8597007358178</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="W2" t="n">
-        <v>646.8597007358178</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="X2" t="n">
-        <v>646.8597007358178</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="Y2" t="n">
-        <v>646.8597007358178</v>
+        <v>574.0438072739748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>554.1464335214266</v>
+        <v>27.31946844444849</v>
       </c>
       <c r="C3" t="n">
-        <v>474.1185955443175</v>
+        <v>27.31946844444849</v>
       </c>
       <c r="D3" t="n">
-        <v>325.1841858830662</v>
+        <v>27.31946844444849</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>27.31946844444849</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>27.31946844444849</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>27.31946844444849</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>27.31946844444849</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>648.3904695545984</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="U3" t="n">
-        <v>808.3837902496282</v>
+        <v>678.083375646678</v>
       </c>
       <c r="V3" t="n">
-        <v>808.3837902496282</v>
+        <v>442.9312674149352</v>
       </c>
       <c r="W3" t="n">
-        <v>554.1464335214266</v>
+        <v>442.9312674149352</v>
       </c>
       <c r="X3" t="n">
-        <v>554.1464335214266</v>
+        <v>235.0797672094024</v>
       </c>
       <c r="Y3" t="n">
-        <v>554.1464335214266</v>
+        <v>27.31946844444849</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>441.4881150121934</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="C4" t="n">
-        <v>441.4881150121934</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3714755998577</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="E4" t="n">
-        <v>291.3714755998577</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="F4" t="n">
-        <v>144.4815281019473</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="H4" t="n">
         <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="V4" t="n">
-        <v>851.1261307404504</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="W4" t="n">
-        <v>851.1261307404504</v>
+        <v>526.3924520664866</v>
       </c>
       <c r="X4" t="n">
-        <v>623.1365798424331</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="Y4" t="n">
-        <v>623.1365798424331</v>
+        <v>298.4029011684693</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>795.3824159274916</v>
+        <v>911.2954170313367</v>
       </c>
       <c r="C5" t="n">
-        <v>795.3824159274916</v>
+        <v>911.2954170313367</v>
       </c>
       <c r="D5" t="n">
-        <v>795.3824159274916</v>
+        <v>911.2954170313367</v>
       </c>
       <c r="E5" t="n">
-        <v>795.3824159274916</v>
+        <v>525.5071644330924</v>
       </c>
       <c r="F5" t="n">
-        <v>518.5616636838898</v>
+        <v>518.5616636838889</v>
       </c>
       <c r="G5" t="n">
         <v>130.9983022541606</v>
@@ -4562,55 +4562,55 @@
         <v>130.9983022541606</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523455</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275175</v>
+        <v>93.76641159275141</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245567</v>
+        <v>239.0325989245559</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825641</v>
+        <v>456.1499114825631</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748873</v>
+        <v>729.4041931748858</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202382</v>
+        <v>1011.693823202379</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798415</v>
+        <v>1264.916654798413</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189413</v>
+        <v>1446.53548218941</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261727</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261727</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261727</v>
+        <v>1389.996673518252</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261727</v>
+        <v>1177.398442107327</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261727</v>
+        <v>1177.398442107327</v>
       </c>
       <c r="V5" t="n">
-        <v>1534.750911261727</v>
+        <v>1177.398442107327</v>
       </c>
       <c r="W5" t="n">
-        <v>1181.982255991613</v>
+        <v>911.2954170313367</v>
       </c>
       <c r="X5" t="n">
-        <v>1181.982255991613</v>
+        <v>911.2954170313367</v>
       </c>
       <c r="Y5" t="n">
-        <v>1181.982255991613</v>
+        <v>911.2954170313367</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>625.3454228275452</v>
+        <v>609.48006385743</v>
       </c>
       <c r="C6" t="n">
-        <v>625.3454228275452</v>
+        <v>583.7184994946849</v>
       </c>
       <c r="D6" t="n">
-        <v>608.5962529742999</v>
+        <v>434.7840898334336</v>
       </c>
       <c r="E6" t="n">
-        <v>449.3587979688443</v>
+        <v>275.5466348279781</v>
       </c>
       <c r="F6" t="n">
-        <v>302.8242399957293</v>
+        <v>129.012076854863</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6519402584159</v>
+        <v>129.012076854863</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878734</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523455</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="J6" t="n">
-        <v>49.4420610756344</v>
+        <v>49.44206107563419</v>
       </c>
       <c r="K6" t="n">
-        <v>159.638568016945</v>
+        <v>168.1621611715537</v>
       </c>
       <c r="L6" t="n">
-        <v>354.1339118482972</v>
+        <v>362.6575050029056</v>
       </c>
       <c r="M6" t="n">
-        <v>733.9847623855748</v>
+        <v>608.9812656736515</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584466</v>
+        <v>876.2331282458738</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749984</v>
+        <v>1098.496575411392</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948672</v>
+        <v>1478.347425948669</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261727</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757976</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.346686757976</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="T6" t="n">
-        <v>1530.346686757976</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="U6" t="n">
-        <v>1530.346686757976</v>
+        <v>1306.629827582328</v>
       </c>
       <c r="V6" t="n">
-        <v>1295.194578526233</v>
+        <v>1071.477719350585</v>
       </c>
       <c r="W6" t="n">
-        <v>1040.957221798032</v>
+        <v>817.2403626223838</v>
       </c>
       <c r="X6" t="n">
-        <v>833.1057215924991</v>
+        <v>817.2403626223838</v>
       </c>
       <c r="Y6" t="n">
-        <v>625.3454228275452</v>
+        <v>609.48006385743</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>967.1054354430742</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="C7" t="n">
-        <v>798.1692525151673</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="D7" t="n">
-        <v>648.0526131028315</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="E7" t="n">
-        <v>500.1395195204384</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="F7" t="n">
-        <v>353.249572022528</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="G7" t="n">
-        <v>184.8683296605918</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709665</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709665</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523455</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223269</v>
+        <v>157.4322756223267</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830393</v>
+        <v>375.1387655830389</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388159</v>
+        <v>615.0688576388152</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974833</v>
+        <v>854.7285647974824</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891673</v>
+        <v>1060.076798891672</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934023</v>
+        <v>1212.267005934022</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495185</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495185</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495185</v>
+        <v>1030.691890529573</v>
       </c>
       <c r="T7" t="n">
-        <v>1234.200536495185</v>
+        <v>806.0266324061178</v>
       </c>
       <c r="U7" t="n">
-        <v>1234.200536495185</v>
+        <v>574.796676468082</v>
       </c>
       <c r="V7" t="n">
-        <v>1234.200536495185</v>
+        <v>320.1121882621951</v>
       </c>
       <c r="W7" t="n">
-        <v>1234.200536495185</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="X7" t="n">
-        <v>1006.210985597168</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="Y7" t="n">
-        <v>1006.210985597168</v>
+        <v>30.69501822523448</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1296.296386131215</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C8" t="n">
-        <v>1296.296386131215</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="D8" t="n">
-        <v>1296.296386131215</v>
+        <v>756.6369969428285</v>
       </c>
       <c r="E8" t="n">
-        <v>910.508133532971</v>
+        <v>756.6369969428285</v>
       </c>
       <c r="F8" t="n">
-        <v>499.5222287433634</v>
+        <v>345.651092153221</v>
       </c>
       <c r="G8" t="n">
-        <v>83.81747846765228</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>83.81747846765228</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392295</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1296.296386131215</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1296.296386131215</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4884,25 +4884,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>472.6531669530523</v>
+        <v>519.0385070447395</v>
       </c>
       <c r="C10" t="n">
-        <v>472.6531669530523</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D10" t="n">
-        <v>472.6531669530523</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>324.7400733706592</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>177.8501258727488</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V10" t="n">
-        <v>990.0598878880302</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="W10" t="n">
-        <v>700.6427178510696</v>
+        <v>834.9321317361096</v>
       </c>
       <c r="X10" t="n">
-        <v>472.6531669530523</v>
+        <v>606.9425808380922</v>
       </c>
       <c r="Y10" t="n">
-        <v>472.6531669530523</v>
+        <v>606.9425808380922</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2040.546330724785</v>
+        <v>2333.452899754456</v>
       </c>
       <c r="C11" t="n">
-        <v>1671.583813784373</v>
+        <v>1964.490382814044</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.318115177623</v>
+        <v>1606.224684207294</v>
       </c>
       <c r="E11" t="n">
-        <v>927.5298625793783</v>
+        <v>1220.43643160905</v>
       </c>
       <c r="F11" t="n">
-        <v>516.5439577897707</v>
+        <v>809.4505268194425</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309163</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592066</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J11" t="n">
         <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656953</v>
+        <v>695.1615405656958</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625328</v>
+        <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087829</v>
+        <v>1828.95612308783</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484039</v>
+        <v>2455.600890484041</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535292</v>
+        <v>3033.988513535294</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479991</v>
+        <v>3493.127967479993</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464056</v>
+        <v>3789.749829464059</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796033</v>
+        <v>3876.883295796034</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345373</v>
+        <v>3836.426485325584</v>
       </c>
       <c r="T11" t="n">
-        <v>3776.999350345373</v>
+        <v>3836.426485325584</v>
       </c>
       <c r="U11" t="n">
-        <v>3776.999350345373</v>
+        <v>3836.426485325584</v>
       </c>
       <c r="V11" t="n">
-        <v>3445.936463001803</v>
+        <v>3836.426485325584</v>
       </c>
       <c r="W11" t="n">
-        <v>3093.167807731688</v>
+        <v>3483.657830055469</v>
       </c>
       <c r="X11" t="n">
-        <v>2719.702049470608</v>
+        <v>3110.192071794389</v>
       </c>
       <c r="Y11" t="n">
-        <v>2329.562717494797</v>
+        <v>2720.052739818578</v>
       </c>
     </row>
     <row r="12">
@@ -5103,31 +5103,31 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
         <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592066</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J12" t="n">
-        <v>193.841091987041</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046649</v>
+        <v>354.4735703335448</v>
       </c>
       <c r="L12" t="n">
-        <v>889.474037062616</v>
+        <v>773.1706109914961</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019144</v>
+        <v>1011.185054749524</v>
       </c>
       <c r="N12" t="n">
         <v>1546.994364450734</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>855.3874874078616</v>
+        <v>404.9049198716644</v>
       </c>
       <c r="C13" t="n">
-        <v>686.4513044799547</v>
+        <v>235.9687369437576</v>
       </c>
       <c r="D13" t="n">
-        <v>684.2345436865692</v>
+        <v>85.8520975314218</v>
       </c>
       <c r="E13" t="n">
-        <v>536.3214501041761</v>
+        <v>85.8520975314218</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>85.85209753142186</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174539</v>
+        <v>85.85209753142186</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592066</v>
+        <v>85.85209753142186</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592066</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758647</v>
+        <v>136.8552218758643</v>
       </c>
       <c r="K13" t="n">
         <v>364.1690246648141</v>
@@ -5218,31 +5218,31 @@
         <v>2042.940349010721</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742806</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742806</v>
+        <v>2056.743466925582</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742806</v>
+        <v>1868.627619458878</v>
       </c>
       <c r="T13" t="n">
-        <v>2137.362968742806</v>
+        <v>1647.736286893318</v>
       </c>
       <c r="U13" t="n">
-        <v>1848.271275692257</v>
+        <v>1358.644593842769</v>
       </c>
       <c r="V13" t="n">
-        <v>1593.58678748637</v>
+        <v>1103.960105636882</v>
       </c>
       <c r="W13" t="n">
-        <v>1304.169617449409</v>
+        <v>814.5429355999215</v>
       </c>
       <c r="X13" t="n">
-        <v>1076.180066551392</v>
+        <v>586.5533847019042</v>
       </c>
       <c r="Y13" t="n">
-        <v>855.3874874078616</v>
+        <v>586.5533847019042</v>
       </c>
     </row>
     <row r="14">
@@ -5267,16 +5267,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5288,37 +5288,37 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958744</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679675</v>
+        <v>580.899304487669</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556318</v>
+        <v>430.7826650753332</v>
       </c>
       <c r="E16" t="n">
-        <v>335.9629114732388</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F16" t="n">
-        <v>189.0729639753285</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267662</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261141</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="17">
@@ -5510,7 +5510,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111708</v>
@@ -5519,16 +5519,16 @@
         <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,22 +5595,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637308</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.6442739835331</v>
+        <v>923.4916164683292</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>754.5554335404224</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>754.5554335404224</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
         <v>2035.089393279803</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2276.168730525142</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2056.567265548083</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1767.492038892281</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1250.085317957303</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.292738813773</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5774,16 +5774,16 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5981,55 +5981,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>874.8686257536305</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>705.9324428257236</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>555.8158034133878</v>
       </c>
       <c r="E25" t="n">
         <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,7 +6160,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>2049.400878868265</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1794.716390662378</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1505.299220625418</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1277.3096697274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>1056.51709058387</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2436.221543936136</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.189824692392</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>974.1018203925703</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>753.3092412490403</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6479,7 +6479,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>718.5507239167107</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6622,19 +6622,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469504</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6716,31 +6716,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,61 +6832,61 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121647</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121647</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121647</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121647</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
         <v>1688.385853854706</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138414</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="38">
@@ -7169,19 +7169,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400716</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121646</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121646</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121646</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121646</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270446</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,34 +7333,34 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
         <v>1688.385853854706</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138414</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192497</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075799</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C43" t="n">
-        <v>402.724593490894</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>402.724593490894</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E43" t="n">
-        <v>402.724593490894</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F43" t="n">
-        <v>402.724593490894</v>
+        <v>344.917417812164</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7582,13 +7582,13 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5.262887399594121</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167801</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636991</v>
+        <v>34.43939438637011</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,22 +8295,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>8.609690055160712</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>134.8758483500316</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>96.76202891582636</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>223.0281872106956</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>168.7434581780649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111067</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.60761876116803</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.83286363040667</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -23315,7 +23315,7 @@
         <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.4208798327605</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992738</v>
+        <v>82.02223659992755</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905247</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>59.62759525031586</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>71.22040037418569</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>24.80831533903259</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>78.31512318719831</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>139.4693302300328</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856278</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516648</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>139.9994244361351</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856546</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.74112246243842</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>57.22910392194038</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194176</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>202.6501519448731</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25324,40 +25324,40 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>81.26583631856553</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>57.2291039219422</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>81.26583631856552</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194242</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194236</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194255</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>62.3554390986496</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>982269.6839988086</v>
+        <v>982269.6839988087</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
-        <v>311350.4288166185</v>
+        <v>311350.4288166181</v>
       </c>
       <c r="F2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="G2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="H2" t="n">
+        <v>343037.3048682526</v>
+      </c>
+      <c r="I2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="G2" t="n">
-        <v>343037.3048682529</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="I2" t="n">
-        <v>343037.3048682528</v>
-      </c>
-      <c r="J2" t="n">
-        <v>343037.3048682528</v>
-      </c>
       <c r="K2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="L2" t="n">
+        <v>343037.3048682526</v>
+      </c>
+      <c r="M2" t="n">
+        <v>343037.3048682526</v>
+      </c>
+      <c r="N2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>343037.3048682526</v>
-      </c>
-      <c r="O2" t="n">
-        <v>343037.3048682529</v>
-      </c>
-      <c r="P2" t="n">
-        <v>343037.3048682528</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657078</v>
+        <v>132804.2190657068</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929369</v>
+        <v>265413.0723929377</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545763</v>
+        <v>313577.1573545768</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704303</v>
+        <v>189308.2687704295</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417444</v>
+        <v>30877.42926417413</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049553</v>
+        <v>65018.3450204957</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273055</v>
+        <v>81897.40371273061</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202386</v>
+        <v>49839.57413202385</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>253016.7649073352</v>
       </c>
       <c r="C4" t="n">
-        <v>217460.7998099262</v>
+        <v>217460.7998099264</v>
       </c>
       <c r="D4" t="n">
         <v>142746.9572676995</v>
@@ -26433,10 +26433,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181823</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
@@ -26445,10 +26445,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181811</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26457,7 +26457,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181821</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.650386675</v>
+        <v>72593.65038667493</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.4850673856</v>
+        <v>85137.48506738563</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-647209.7965104741</v>
+        <v>-647209.7965104742</v>
       </c>
       <c r="C6" t="n">
-        <v>-73915.91706998841</v>
+        <v>-73915.91706998779</v>
       </c>
       <c r="D6" t="n">
-        <v>-152155.0499081607</v>
+        <v>-152155.0499081615</v>
       </c>
       <c r="E6" t="n">
-        <v>-99645.71522751507</v>
+        <v>-99866.84654149064</v>
       </c>
       <c r="F6" t="n">
-        <v>40219.58609209712</v>
+        <v>40184.84816666236</v>
       </c>
       <c r="G6" t="n">
-        <v>229527.8548625277</v>
+        <v>229493.1169370917</v>
       </c>
       <c r="H6" t="n">
-        <v>229527.8548625277</v>
+        <v>229493.1169370916</v>
       </c>
       <c r="I6" t="n">
-        <v>229527.8548625275</v>
+        <v>229493.1169370918</v>
       </c>
       <c r="J6" t="n">
-        <v>160528.7004434136</v>
+        <v>160493.9625179776</v>
       </c>
       <c r="K6" t="n">
-        <v>198650.4255983531</v>
+        <v>198615.6876729176</v>
       </c>
       <c r="L6" t="n">
-        <v>164509.509842032</v>
+        <v>164474.7719165959</v>
       </c>
       <c r="M6" t="n">
-        <v>147630.4511497969</v>
+        <v>147595.713224361</v>
       </c>
       <c r="N6" t="n">
-        <v>179688.2807305035</v>
+        <v>179653.5428050679</v>
       </c>
       <c r="O6" t="n">
-        <v>229527.8548625276</v>
+        <v>229493.1169370917</v>
       </c>
       <c r="P6" t="n">
-        <v>229527.8548625275</v>
+        <v>229493.1169370917</v>
       </c>
     </row>
   </sheetData>
@@ -26704,10 +26704,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695754</v>
+        <v>717.3319511695747</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214949</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154319</v>
+        <v>383.6877278154309</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490081</v>
+        <v>969.2208239490084</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,10 +26817,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.276937400097</v>
+        <v>103.2769374000964</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479637</v>
+        <v>216.7329409479644</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974104</v>
+        <v>268.1763450974108</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267247</v>
+        <v>165.7342631267238</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139257</v>
+        <v>119.9738478139247</v>
       </c>
       <c r="D4" t="n">
-        <v>256.897104284607</v>
+        <v>256.8971042846079</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489693</v>
+        <v>328.6359918489695</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506404</v>
+        <v>203.48746415064</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139257</v>
+        <v>119.9738478139247</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846072</v>
+        <v>256.8971042846079</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489693</v>
+        <v>328.6359918489695</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506402</v>
+        <v>203.48746415064</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139257</v>
+        <v>119.9738478139247</v>
       </c>
       <c r="L4" t="n">
-        <v>256.897104284607</v>
+        <v>256.8971042846079</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489693</v>
+        <v>328.6359918489695</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506404</v>
+        <v>203.48746415064</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>234.0473316941895</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>222.11642819994</v>
+        <v>50.47975262776178</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,13 +27458,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>93.48093939097771</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>37.76166953762088</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27515,16 +27515,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27594,10 +27594,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>50.44554795090963</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>95.56832820370585</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>132.8235010205457</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>28.73126316233807</v>
+        <v>28.73126316233896</v>
       </c>
       <c r="H5" t="n">
         <v>309.9416328899766</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660375</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>85.79897389218269</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,10 +27695,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>147.2045502691981</v>
       </c>
       <c r="D6" t="n">
-        <v>130.8633874099258</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951732</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713849</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698458</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
         <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.1174855293846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
         <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643564</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059546</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>57.33081573673681</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>120.0874402435883</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>33.46492769181782</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>92.80694712651811</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>40.96929413310595</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-8.30056023914949e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.473871435806598e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29202,7 +29202,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>7.517303009959066e-12</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -29214,7 +29214,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2.742694960033987e-12</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29995,13 +29995,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30694,10 +30694,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30709,10 +30709,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.350276212680659e-12</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,19 +30745,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365125</v>
+        <v>2.883746537365122</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579059</v>
+        <v>29.53316922579057</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817691</v>
+        <v>111.175638381769</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756935</v>
+        <v>244.7543826756933</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023593</v>
+        <v>366.823373602359</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952474</v>
+        <v>455.0768316952469</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791144</v>
+        <v>506.3606591791139</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284031</v>
+        <v>514.5541040284025</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974786</v>
+        <v>485.8788493974781</v>
       </c>
       <c r="P5" t="n">
-        <v>414.686356756277</v>
+        <v>414.6863567562766</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868884</v>
+        <v>311.412183886888</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277622</v>
+        <v>181.146143427762</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020785</v>
+        <v>65.7133742202078</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731584</v>
+        <v>12.62360046731583</v>
       </c>
       <c r="U5" t="n">
-        <v>0.23069972298921</v>
+        <v>0.2306997229892097</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270408</v>
+        <v>1.542940423270406</v>
       </c>
       <c r="H6" t="n">
-        <v>14.9015561931642</v>
+        <v>14.90155619316419</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189781</v>
+        <v>53.12316808189776</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862625</v>
+        <v>145.7740335862624</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453798</v>
+        <v>249.1510419453796</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438663</v>
+        <v>335.0143230438661</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874186</v>
+        <v>390.9459133874182</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189119</v>
+        <v>401.2930884189115</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348675</v>
+        <v>367.1047769348672</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190658</v>
+        <v>294.6339480190655</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739559</v>
+        <v>196.9549915739557</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392937</v>
+        <v>95.79765189392928</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399198</v>
+        <v>28.65944163399195</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989053</v>
+        <v>6.219132670989047</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730532</v>
+        <v>0.1015092383730531</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141857</v>
+        <v>1.293549420141856</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907943</v>
+        <v>11.50083029907942</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572059</v>
+        <v>38.90055892572055</v>
       </c>
       <c r="J7" t="n">
-        <v>91.4539440040293</v>
+        <v>91.45394400402921</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401176</v>
+        <v>150.2869235401174</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545449</v>
+        <v>192.3155201545447</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773276</v>
+        <v>202.7697513773275</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022536</v>
+        <v>197.9483399022534</v>
       </c>
       <c r="O7" t="n">
-        <v>182.83733076696</v>
+        <v>182.8373307669598</v>
       </c>
       <c r="P7" t="n">
-        <v>156.448922596066</v>
+        <v>156.4489225960659</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266059</v>
+        <v>108.3171246266058</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565112</v>
+        <v>58.16268574565107</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101763</v>
+        <v>22.54303853101761</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060661</v>
+        <v>5.526983886060655</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864683</v>
+        <v>0.07055724109864676</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.83313060186914</v>
+        <v>4.833130601869142</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639234</v>
+        <v>49.49729877639236</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285602</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203913</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975121</v>
+        <v>614.7923367975123</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544649</v>
+        <v>762.7042574544653</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954552</v>
+        <v>848.6554437954555</v>
       </c>
       <c r="N11" t="n">
-        <v>862.387576118016</v>
+        <v>862.3875761180163</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956796</v>
+        <v>814.32813369568</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620352</v>
+        <v>695.0102219620354</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825965</v>
+        <v>521.9237322825967</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696626</v>
+        <v>303.5991401696627</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900931</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968217</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495311</v>
+        <v>0.3866504481495313</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858571</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
         <v>24.97486041837094</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469203</v>
+        <v>89.03390294469206</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193135</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598377</v>
+        <v>417.5746757598379</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747743</v>
+        <v>561.4806834747745</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821474</v>
+        <v>382.5526639806327</v>
       </c>
       <c r="N12" t="n">
-        <v>282.4162185798895</v>
+        <v>672.5632370340502</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924469</v>
+        <v>615.2639659924471</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383441</v>
+        <v>493.8035753383443</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047537</v>
+        <v>330.0946129047538</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627649</v>
+        <v>48.0329399962765</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,43 +31911,43 @@
         <v>2.167976001535155</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092166</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798448</v>
+        <v>65.19695102798451</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329024</v>
+        <v>251.8793936329025</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100539</v>
+        <v>322.318904810054</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770061</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531026</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806236</v>
+        <v>306.4335533806237</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493062</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194574</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811702</v>
+        <v>97.48008457811706</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493536</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377476</v>
+        <v>9.26317018837748</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473722</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647489</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,31 +32315,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727245</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32567,7 +32567,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34787,10 +34787,10 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>217.4386117456598</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900722</v>
+        <v>63.70847814900699</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573788</v>
+        <v>146.7335225573784</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252602</v>
+        <v>219.3104167252597</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518416</v>
+        <v>276.0144259518412</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318122</v>
+        <v>285.1410404318116</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757918</v>
+        <v>255.7806379757914</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010075</v>
+        <v>183.4533610010071</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.1064940124389</v>
+        <v>89.10649401243856</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959581</v>
+        <v>18.93640691959567</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710208</v>
+        <v>119.9192930261813</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639922</v>
+        <v>196.4599432639919</v>
       </c>
       <c r="M6" t="n">
-        <v>383.6877278154319</v>
+        <v>248.8118794653998</v>
       </c>
       <c r="N6" t="n">
-        <v>366.7134052514049</v>
+        <v>269.9513763355782</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904231</v>
+        <v>224.5085324904227</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047356</v>
+        <v>383.6877278154309</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793439</v>
+        <v>56.97321748793419</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142347</v>
+        <v>128.0174317142346</v>
       </c>
       <c r="L7" t="n">
-        <v>219.905545414861</v>
+        <v>219.9055454148608</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391682</v>
+        <v>242.353628339168</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814822</v>
+        <v>242.080512281482</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809997</v>
+        <v>207.4224586809995</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609595</v>
+        <v>153.7274818609594</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.1550813749115</v>
+        <v>22.15508137491139</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35261,7 +35261,7 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>559.9405577709388</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35270,10 +35270,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.160013893705</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525316</v>
+        <v>394.7024857525318</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844776</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681825</v>
+        <v>618.3092105681828</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214251</v>
+        <v>632.9745125214254</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739929</v>
+        <v>584.2299222739932</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067656</v>
+        <v>463.7772262067659</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081469</v>
+        <v>299.6180424081472</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553051</v>
+        <v>88.01360235553062</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526468</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854787</v>
+        <v>279.7332367854789</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949001</v>
+        <v>422.9263036949004</v>
       </c>
       <c r="M12" t="n">
-        <v>513.087440360129</v>
+        <v>240.4186300586144</v>
       </c>
       <c r="N12" t="n">
-        <v>151.0745064965562</v>
+        <v>541.2215249507169</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480024</v>
+        <v>472.6677215480026</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240139</v>
+        <v>359.829167924014</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187322</v>
+        <v>190.1128388187323</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186264</v>
+        <v>59.9167231918627</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070196</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.90893007037</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388466</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323312</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946633</v>
+        <v>331.0186812946634</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141997</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776297</v>
+        <v>95.37638356776306</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427306</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507062</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36215,7 +36215,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36759,10 +36759,10 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
